--- a/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
+++ b/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R30265225e21e4f9d"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Ra1f1f3216eae46f6"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
   <x:si>
     <x:t>Especie</x:t>
   </x:si>
@@ -30,6 +30,30 @@
   </x:si>
   <x:si>
     <x:t>Stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdasd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ads</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdzxc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zxc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sd</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -360,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:F1"/>
+  <x:dimension ref="A1:F5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -386,6 +410,71 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
+    <x:row r="2">
+      <x:c r="A2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
--- a/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
+++ b/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Ra1f1f3216eae46f6"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R9757885ba9194f4b"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
   <x:si>
     <x:t>Especie</x:t>
   </x:si>
@@ -32,28 +32,43 @@
     <x:t>Stock</x:t>
   </x:si>
   <x:si>
-    <x:t>asdasd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sda</x:t>
-  </x:si>
-  <x:si>
     <x:t>asd</x:t>
   </x:si>
   <x:si>
-    <x:t>ads</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdzxc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zxc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sd</x:t>
+    <x:t>jsd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasdk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fsd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wqfdsfq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>que pincha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>onolulu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sadasd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>que pincha2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dc2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -384,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:F5"/>
+  <x:dimension ref="A1:F4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -415,63 +430,58 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E2" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="F2">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F3">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F4">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5">
-      <x:c r="A5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
+++ b/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
   <x:si>
     <x:t>Especie</x:t>
   </x:si>
@@ -69,6 +69,18 @@
   </x:si>
   <x:si>
     <x:t>dc2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>que pinc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nhnh</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -399,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:F4"/>
+  <x:dimension ref="A1:F5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -430,7 +442,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2" t="s">
         <x:v>8</x:v>
@@ -442,7 +454,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F2">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -462,7 +474,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F3">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -482,6 +494,26 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F4">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F5">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
+++ b/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
@@ -474,7 +474,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F3">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4">

--- a/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
+++ b/Trabajo final/cacTU/cacTU/bin/Debug/cactus.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R9757885ba9194f4b"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R5b089ae1511a4806"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
   <x:si>
     <x:t>Especie</x:t>
   </x:si>
@@ -32,55 +32,79 @@
     <x:t>Stock</x:t>
   </x:si>
   <x:si>
-    <x:t>asd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jsd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kasdk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fsd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wqfdsfq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>que pincha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>onolulu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sadasd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>que pincha2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dc2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>que pinc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>n</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nhnh</x:t>
+    <x:t>myriostigma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>astrophytum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cacteae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>méxico</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amerhauseri</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">	gymnocalycium</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">	trichocereeae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>argentina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gigantea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>carnegiea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pachycereeae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cactus columnar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>centro américa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ingens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>euphorbia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>euphorbiinae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>árbol candelabro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>áfrica sur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gymnocalycium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trichocereeae</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">gaertneri </x:t>
+  </x:si>
+  <x:si>
+    <x:t>schlumbergera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rhipsalideae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cactus de navidad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brasil</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -411,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:F5"/>
+  <x:dimension ref="A1:F6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -442,79 +466,93 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D2" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="E2" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E3" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F3">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="D4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B5" t="s">
+      <x:c r="C5" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="D5" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F6">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
